--- a/public/assets/files/xmltemplate.xlsx
+++ b/public/assets/files/xmltemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Contabilidad\AppContador\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA8056D-E9AB-4807-AF1E-881A850C4867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9F072A-FA17-45D0-8F5C-34C19E15A247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0D4A59A9-9897-487B-A257-5068FE3D6F81}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>IGV</t>
   </si>
@@ -84,13 +84,16 @@
   </si>
   <si>
     <t>PERIODO</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +111,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -182,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -195,6 +204,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -511,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4BE83F-4EC4-417A-8C8C-BC95AA130763}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +544,7 @@
     <col min="11" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -540,7 +552,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -548,7 +560,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -556,7 +568,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -581,25 +593,28 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
